--- a/supplementary/data4.xlsx
+++ b/supplementary/data4.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="52">
-  <si>
-    <t>Supplemental Data 4: No target-specific bindng and varying non-specific binding rate simulation parameters and correposnding fit values</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
+  <si>
+    <t>Supplemental Data 4: No target-specific binding and varying non-specific binding rate simulation parameters and corresponding fit values</t>
   </si>
   <si>
     <t>N</t>
@@ -715,7 +715,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -737,7 +737,7 @@
     <col min="14" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -763,22 +763,19 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -807,22 +804,19 @@
         <v>150</v>
       </c>
       <c r="J2">
-        <v>3.7589</v>
+        <v>5</v>
       </c>
       <c r="K2">
+        <v>500</v>
+      </c>
+      <c r="L2">
         <v>5</v>
       </c>
-      <c r="L2">
-        <v>500</v>
-      </c>
       <c r="M2">
-        <v>5</v>
-      </c>
-      <c r="N2">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -851,22 +845,19 @@
         <v>150</v>
       </c>
       <c r="J3">
-        <v>3.7589</v>
+        <v>5</v>
       </c>
       <c r="K3">
+        <v>500</v>
+      </c>
+      <c r="L3">
         <v>5</v>
       </c>
-      <c r="L3">
-        <v>500</v>
-      </c>
       <c r="M3">
-        <v>5</v>
-      </c>
-      <c r="N3">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -895,22 +886,19 @@
         <v>150</v>
       </c>
       <c r="J4">
-        <v>3.7589</v>
+        <v>5</v>
       </c>
       <c r="K4">
+        <v>500</v>
+      </c>
+      <c r="L4">
         <v>5</v>
       </c>
-      <c r="L4">
-        <v>500</v>
-      </c>
       <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="N4">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -939,22 +927,19 @@
         <v>150</v>
       </c>
       <c r="J5">
-        <v>3.7589</v>
+        <v>5</v>
       </c>
       <c r="K5">
+        <v>500</v>
+      </c>
+      <c r="L5">
         <v>5</v>
       </c>
-      <c r="L5">
-        <v>500</v>
-      </c>
       <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -983,18 +968,15 @@
         <v>150</v>
       </c>
       <c r="J6">
-        <v>3.7589</v>
+        <v>5</v>
       </c>
       <c r="K6">
+        <v>500</v>
+      </c>
+      <c r="L6">
         <v>5</v>
       </c>
-      <c r="L6">
-        <v>500</v>
-      </c>
       <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6">
         <v>14</v>
       </c>
     </row>

--- a/supplementary/data4.xlsx
+++ b/supplementary/data4.xlsx
@@ -1019,13 +1019,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>6.992</v>
+        <v>6.9961</v>
       </c>
       <c r="C2">
-        <v>6.9744</v>
+        <v>6.9777</v>
       </c>
       <c r="D2">
-        <v>7.0091</v>
+        <v>7.0155</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -1036,13 +1036,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>2.7642</v>
+        <v>2.7884</v>
       </c>
       <c r="C3">
-        <v>1.6239</v>
+        <v>1.7772</v>
       </c>
       <c r="D3">
-        <v>3.8573</v>
+        <v>3.8345</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -1053,13 +1053,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0091</v>
+        <v>0.0077</v>
       </c>
       <c r="C4">
-        <v>0.0063</v>
+        <v>0.0052</v>
       </c>
       <c r="D4">
-        <v>0.0117</v>
+        <v>0.0102</v>
       </c>
       <c r="E4">
         <v>0.01</v>
@@ -1070,13 +1070,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0038</v>
+        <v>0.0045</v>
       </c>
       <c r="C5">
-        <v>0.0009</v>
+        <v>0.0011</v>
       </c>
       <c r="D5">
-        <v>0.0075</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1087,13 +1087,13 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>0.0038</v>
+        <v>0.0045</v>
       </c>
       <c r="C6">
-        <v>0.0009</v>
+        <v>0.0011</v>
       </c>
       <c r="D6">
-        <v>0.0076</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1101,7 +1101,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.52</v>
+        <v>3.6528</v>
       </c>
       <c r="E7">
         <v>3.7589</v>
@@ -1136,7 +1136,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2496</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1144,7 +1144,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1216,13 +1216,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0234</v>
+        <v>7.0225</v>
       </c>
       <c r="C2">
-        <v>7.004</v>
+        <v>7.0024</v>
       </c>
       <c r="D2">
-        <v>7.0465</v>
+        <v>7.0437</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -1233,13 +1233,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.9578</v>
+        <v>1.0052</v>
       </c>
       <c r="C3">
-        <v>0.0761</v>
+        <v>0.014</v>
       </c>
       <c r="D3">
-        <v>2.2676</v>
+        <v>2.2785</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -1250,13 +1250,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0533</v>
+        <v>0.0527</v>
       </c>
       <c r="C4">
         <v>0.0464</v>
       </c>
       <c r="D4">
-        <v>0.0592</v>
+        <v>0.0591</v>
       </c>
       <c r="E4">
         <v>0.05</v>
@@ -1267,13 +1267,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0012</v>
+        <v>0.0013</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0033</v>
+        <v>0.0039</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1284,22 +1284,19 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>0.0011</v>
+        <v>0.0013</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0033</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7">
-        <v>3.4565</v>
-      </c>
       <c r="E7">
         <v>3.7589</v>
       </c>
@@ -1333,7 +1330,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2418</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1341,7 +1338,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1413,13 +1410,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0126</v>
+        <v>7.0377</v>
       </c>
       <c r="C2">
-        <v>6.9941</v>
+        <v>7.0174</v>
       </c>
       <c r="D2">
-        <v>7.0347</v>
+        <v>7.0591</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -1430,13 +1427,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1.307</v>
+        <v>1.2235</v>
       </c>
       <c r="C3">
-        <v>0.1483</v>
+        <v>0.1296</v>
       </c>
       <c r="D3">
-        <v>2.4888</v>
+        <v>2.4785</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -1447,13 +1444,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.1583</v>
+        <v>0.1584</v>
       </c>
       <c r="C4">
-        <v>0.1471</v>
+        <v>0.1481</v>
       </c>
       <c r="D4">
-        <v>0.168</v>
+        <v>0.1687</v>
       </c>
       <c r="E4">
         <v>0.15</v>
@@ -1464,13 +1461,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0016</v>
+        <v>0.0017</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0053</v>
+        <v>0.0056</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1481,13 +1478,13 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>0.0016</v>
+        <v>0.0017</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0054</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1607,13 +1604,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0344</v>
+        <v>7.0223</v>
       </c>
       <c r="C2">
-        <v>7.0157</v>
+        <v>7.0019</v>
       </c>
       <c r="D2">
-        <v>7.0567</v>
+        <v>7.0438</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -1624,13 +1621,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1.1403</v>
+        <v>0.9958</v>
       </c>
       <c r="C3">
-        <v>0.2654</v>
+        <v>0.3006</v>
       </c>
       <c r="D3">
-        <v>2.1211</v>
+        <v>1.7157</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -1641,13 +1638,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.5037</v>
+        <v>0.5012</v>
       </c>
       <c r="C4">
-        <v>0.4857</v>
+        <v>0.4822</v>
       </c>
       <c r="D4">
-        <v>0.5258</v>
+        <v>0.5198</v>
       </c>
       <c r="E4">
         <v>0.5</v>
@@ -1658,13 +1655,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0039</v>
+        <v>0.0051</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="D5">
-        <v>0.0095</v>
+        <v>0.0116</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1675,13 +1672,13 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>0.004</v>
+        <v>0.0051</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="D6">
-        <v>0.009599999999999999</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1801,13 +1798,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.045</v>
+        <v>7.0249</v>
       </c>
       <c r="C2">
-        <v>7.0263</v>
+        <v>7.005</v>
       </c>
       <c r="D2">
-        <v>7.0673</v>
+        <v>7.0459</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -1818,13 +1815,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1.4702</v>
+        <v>1.4699</v>
       </c>
       <c r="C3">
-        <v>0.251</v>
+        <v>0.3364</v>
       </c>
       <c r="D3">
-        <v>2.8634</v>
+        <v>2.7377</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -1835,13 +1832,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>1.0014</v>
+        <v>0.9893</v>
       </c>
       <c r="C4">
-        <v>0.9734</v>
+        <v>0.9629</v>
       </c>
       <c r="D4">
-        <v>1.0256</v>
+        <v>1.0147</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1852,13 +1849,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0036</v>
+        <v>0.0045</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0119</v>
+        <v>0.0142</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1869,13 +1866,13 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>0.0036</v>
+        <v>0.0045</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0121</v>
+        <v>0.0144</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/supplementary/data4.xlsx
+++ b/supplementary/data4.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
   <si>
-    <t>Supplemental Data 4: No target-specific binding and varying non-specific binding rate simulation parameters and corresponding fit values</t>
+    <t>Supplementary File 4: No target-specific binding and varying non-specific binding rate simulation parameters and corresponding fit values</t>
   </si>
   <si>
     <t>N</t>
